--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2974.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2974.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199152671173445</v>
+        <v>1.707523345947266</v>
       </c>
       <c r="B1">
-        <v>2.530210248080321</v>
+        <v>2.832193613052368</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.114429950714111</v>
       </c>
       <c r="D1">
-        <v>2.243971004390799</v>
+        <v>3.511049270629883</v>
       </c>
       <c r="E1">
-        <v>1.190403240763997</v>
+        <v>1.604800820350647</v>
       </c>
     </row>
   </sheetData>
